--- a/public/import/author.xlsx
+++ b/public/import/author.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7270"/>
+    <workbookView windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>Type of agreement</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>523319100,523317500</t>
-  </si>
-  <si>
-    <t>27,28,29.30</t>
   </si>
   <si>
     <t>523321600,523317500</t>
@@ -500,12 +497,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,14 +533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,26 +546,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,7 +587,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +602,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,13 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -652,7 +634,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +663,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +690,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,55 +828,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,114 +871,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,6 +956,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -985,7 +999,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,45 +1048,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1066,149 +1056,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,21 +1619,21 @@
   <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.4272727272727" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="43.4285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="96.1363636363636" customWidth="1"/>
-    <col min="2" max="2" width="97.4272727272727" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.2818181818182" customWidth="1"/>
-    <col min="4" max="4" width="29.2818181818182" customWidth="1"/>
-    <col min="5" max="5" width="21.5727272727273" customWidth="1"/>
-    <col min="6" max="6" width="21.7090909090909" customWidth="1"/>
-    <col min="7" max="7" width="22.8545454545455" customWidth="1"/>
+    <col min="1" max="1" width="96.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="97.4285714285714" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="29.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="21.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="21.7047619047619" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1987,7 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="15" customHeight="1" spans="1:13">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
@@ -2020,7 +2010,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="15" customHeight="1" spans="1:13">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2033,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>31</v>
       </c>
@@ -2064,7 +2054,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -2085,7 +2075,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A21" s="10" t="s">
         <v>31</v>
       </c>
@@ -2106,7 +2096,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +2117,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -2148,7 +2138,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +2159,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
@@ -2190,7 +2180,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -2211,7 +2201,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -2232,7 +2222,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
@@ -2253,7 +2243,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A29" s="10" t="s">
         <v>33</v>
       </c>
@@ -2274,7 +2264,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -2567,7 +2557,7 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:14">
       <c r="A43" s="17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>45</v>
@@ -2616,7 +2606,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>35</v>
@@ -2637,7 +2627,7 @@
         <v>31</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>35</v>
@@ -2660,7 +2650,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>35</v>
@@ -2683,7 +2673,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>35</v>
@@ -2704,7 +2694,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>35</v>
@@ -2727,7 +2717,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>35</v>
@@ -2747,330 +2737,330 @@
     </row>
     <row r="51" s="2" customFormat="1" spans="1:14">
       <c r="A51" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="D51" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="E51" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="F51" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="13"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A52" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="G52" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A53" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="G53" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A54" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="G54" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A55" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>58</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>35</v>
       </c>
       <c r="E55" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="G55" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A56" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="19">
         <v>523312600</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="G56" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A57" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="G57" s="13"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A58" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="D58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="G58" s="13"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A59" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="G59" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A60" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="G60" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A61" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61" s="13"/>
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A62" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="11">
         <v>523312500</v>
       </c>
       <c r="C62" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="F62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A63" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="11">
         <v>523312500</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="G63" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="11">
         <v>523317100</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>8</v>
@@ -3083,15 +3073,15 @@
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A65" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="11">
         <v>523317100</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>8</v>
@@ -3109,19 +3099,19 @@
         <v>24</v>
       </c>
       <c r="B66" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="G66" s="13"/>
     </row>
@@ -3130,17 +3120,17 @@
         <v>24</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="G67" s="13"/>
     </row>
@@ -3152,16 +3142,16 @@
         <v>523311500</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="13"/>
     </row>
@@ -3170,19 +3160,19 @@
         <v>39</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="13"/>
     </row>
@@ -3191,100 +3181,100 @@
         <v>42</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" s="13"/>
     </row>
     <row r="71" s="2" customFormat="1" spans="1:7">
       <c r="A71" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="11">
         <v>523311400</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E71" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="G71" s="13"/>
     </row>
     <row r="72" s="2" customFormat="1" spans="1:7">
       <c r="A72" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="11">
         <v>523311400</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" s="13"/>
     </row>
     <row r="73" s="2" customFormat="1" spans="1:7">
       <c r="A73" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="G73" s="13"/>
     </row>
     <row r="74" s="2" customFormat="1" spans="1:14">
       <c r="A74" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="11">
         <v>523314300</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
@@ -3293,19 +3283,19 @@
     </row>
     <row r="75" s="2" customFormat="1" spans="1:14">
       <c r="A75" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" s="11">
         <v>523314300</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
@@ -3314,464 +3304,464 @@
     </row>
     <row r="76" s="2" customFormat="1" spans="1:7">
       <c r="A76" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="11">
         <v>523315200</v>
       </c>
       <c r="C76" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="E76" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="F76" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="G76" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" spans="1:7">
       <c r="A77" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="11">
         <v>523318800</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
     <row r="78" s="3" customFormat="1" spans="1:7">
       <c r="A78" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="11">
         <v>523315600</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:14">
       <c r="A79" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="11">
         <v>523315400</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A80" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="19">
         <v>523310100</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E80" s="12" t="s">
+      <c r="F80" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A81" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B81" s="19">
         <v>523312200</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F81" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A82" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="19">
         <v>523320300</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>111</v>
-      </c>
       <c r="F82" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
     </row>
-    <row r="83" s="2" customFormat="1" ht="15" customHeight="1" spans="1:14">
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A83" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="11">
         <v>523321500</v>
       </c>
       <c r="C83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="F83" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A84" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="11">
         <v>523314100</v>
       </c>
       <c r="C84" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F84" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A85" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" s="11">
         <v>523315200</v>
       </c>
       <c r="C85" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="E85" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="F85" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="G85" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A86" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="11">
         <v>523315300</v>
       </c>
       <c r="C86" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="E86" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="F86" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="G86" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="87" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A87" s="16">
         <v>55</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="D87" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="E87" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="F87" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" s="3" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A88" s="16">
+        <v>55</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" s="3" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A89" s="16">
+        <v>55</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A90" s="16">
+        <v>55</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A91" s="16">
+        <v>55</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A92" s="16">
+        <v>55</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A93" s="16">
+        <v>55</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A88" s="16">
-        <v>55</v>
-      </c>
-      <c r="B88" s="11" t="s">
+    </row>
+    <row r="94" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A94" s="16">
+        <v>55</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="D94" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="E94" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="F94" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G88" s="13"/>
-    </row>
-    <row r="89" s="3" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A89" s="16">
-        <v>55</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C89" s="20" t="s">
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A95" s="16">
+        <v>55</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G89" s="13"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A90" s="16">
-        <v>55</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="20" t="s">
+      <c r="E95" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A96" s="16">
+        <v>55</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G90" s="13"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A91" s="16">
-        <v>55</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G91" s="13"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A92" s="16">
-        <v>55</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" s="13"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A93" s="16">
-        <v>55</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A94" s="16">
-        <v>55</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" s="13"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A95" s="16">
-        <v>55</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="20" t="s">
+      <c r="E96" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="12" t="s">
+      <c r="F96" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" s="13"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A96" s="16">
-        <v>55</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G96" s="13"/>
     </row>
@@ -3780,19 +3770,19 @@
         <v>55</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="D97" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E97" s="12" t="s">
+      <c r="F97" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G97" s="13"/>
     </row>
@@ -3801,19 +3791,19 @@
         <v>55</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="D98" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D98" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="12" t="s">
+      <c r="F98" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G98" s="13"/>
     </row>
@@ -3822,19 +3812,19 @@
         <v>55</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="D99" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D99" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="F99" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -3843,19 +3833,19 @@
         <v>55</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="D100" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E100" s="12" t="s">
+      <c r="F100" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G100" s="13"/>
     </row>
@@ -3864,22 +3854,22 @@
         <v>55</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="D101" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D101" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E101" s="12" t="s">
+      <c r="F101" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="G101" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" s="2" customFormat="1" spans="1:7">
@@ -3887,19 +3877,19 @@
         <v>55</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="D102" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" s="12" t="s">
+      <c r="F102" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="G102" s="13"/>
     </row>
@@ -3908,19 +3898,19 @@
         <v>55</v>
       </c>
       <c r="B103" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="D103" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D103" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="12" t="s">
+      <c r="F103" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -3929,19 +3919,19 @@
         <v>55</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="D104" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104" s="12" t="s">
+      <c r="F104" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -3950,19 +3940,19 @@
         <v>55</v>
       </c>
       <c r="B105" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="D105" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E105" s="12" t="s">
+      <c r="F105" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G105" s="13"/>
     </row>
@@ -3971,19 +3961,19 @@
         <v>55</v>
       </c>
       <c r="B106" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="D106" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="F106" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -3992,19 +3982,19 @@
         <v>55</v>
       </c>
       <c r="B107" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="D107" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="F107" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G107" s="13"/>
     </row>
@@ -4013,19 +4003,19 @@
         <v>55</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="D108" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="12" t="s">
+      <c r="F108" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G108" s="13"/>
     </row>
@@ -4034,22 +4024,22 @@
         <v>55</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="D109" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="12" t="s">
+      <c r="F109" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="G109" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:7">
@@ -4057,19 +4047,19 @@
         <v>55</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="D110" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D110" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E110" s="12" t="s">
+      <c r="F110" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="G110" s="13"/>
     </row>
@@ -4081,19 +4071,19 @@
         <v>523610100</v>
       </c>
       <c r="C111" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D111" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="E111" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="F111" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" spans="1:7">
@@ -4104,19 +4094,19 @@
         <v>523610200</v>
       </c>
       <c r="C112" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E112" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="G112" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" s="4" customFormat="1" spans="1:7">
@@ -4127,19 +4117,19 @@
         <v>523610300</v>
       </c>
       <c r="C113" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E113" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F113" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G113" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:7">
@@ -4150,19 +4140,19 @@
         <v>523610400</v>
       </c>
       <c r="C114" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E114" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F114" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:7">
@@ -4173,19 +4163,19 @@
         <v>523610500</v>
       </c>
       <c r="C115" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E115" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="G115" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:7">
@@ -4196,19 +4186,19 @@
         <v>523610700</v>
       </c>
       <c r="C116" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E116" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:7">
@@ -4219,19 +4209,19 @@
         <v>523610800</v>
       </c>
       <c r="C117" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E117" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:7">
@@ -4242,19 +4232,19 @@
         <v>523610900</v>
       </c>
       <c r="C118" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D118" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="E118" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" spans="1:7">
@@ -4265,19 +4255,19 @@
         <v>523611000</v>
       </c>
       <c r="C119" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E119" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" spans="1:7">
@@ -4288,19 +4278,19 @@
         <v>523611100</v>
       </c>
       <c r="C120" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E120" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F120" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="121" s="4" customFormat="1" spans="1:7">
@@ -4311,19 +4301,19 @@
         <v>523611200</v>
       </c>
       <c r="C121" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D121" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E121" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G121" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" spans="1:7">
@@ -4334,19 +4324,19 @@
         <v>523611300</v>
       </c>
       <c r="C122" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E122" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" spans="1:7">
@@ -4357,19 +4347,19 @@
         <v>523611400</v>
       </c>
       <c r="C123" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D123" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E123" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F123" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="G123" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" s="4" customFormat="1" spans="1:7">
@@ -4380,19 +4370,19 @@
         <v>523611500</v>
       </c>
       <c r="C124" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E124" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="G124" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" spans="1:7">
@@ -4403,19 +4393,19 @@
         <v>523611600</v>
       </c>
       <c r="C125" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E125" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" spans="1:7">
@@ -4426,19 +4416,19 @@
         <v>523611700</v>
       </c>
       <c r="C126" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E126" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" spans="1:7">
@@ -4449,19 +4439,19 @@
         <v>523611800</v>
       </c>
       <c r="C127" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E127" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" spans="1:7">
@@ -4472,19 +4462,19 @@
         <v>523611900</v>
       </c>
       <c r="C128" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E128" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" spans="1:7">
@@ -4495,19 +4485,19 @@
         <v>523612000</v>
       </c>
       <c r="C129" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E129" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" spans="1:7">
@@ -4518,19 +4508,19 @@
         <v>523612100</v>
       </c>
       <c r="C130" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E130" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" spans="1:7">
@@ -4541,19 +4531,19 @@
         <v>523612200</v>
       </c>
       <c r="C131" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D131" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E131" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" spans="1:7">
@@ -4564,19 +4554,19 @@
         <v>523612300</v>
       </c>
       <c r="C132" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D132" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E132" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" spans="1:7">
@@ -4587,19 +4577,19 @@
         <v>523612400</v>
       </c>
       <c r="C133" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D133" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="E133" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" spans="1:7">
@@ -4607,22 +4597,22 @@
         <v>55</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="D134" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="F134" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" spans="1:7">
@@ -4630,22 +4620,22 @@
         <v>55</v>
       </c>
       <c r="B135" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="D135" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D135" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="F135" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:7">
@@ -4653,22 +4643,22 @@
         <v>55</v>
       </c>
       <c r="B136" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="D136" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:7">
@@ -4676,22 +4666,22 @@
         <v>55</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" spans="1:7">
@@ -4699,22 +4689,22 @@
         <v>55</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" s="4" customFormat="1" spans="1:7">
@@ -4722,22 +4712,22 @@
         <v>55</v>
       </c>
       <c r="B139" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="D139" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" spans="1:7">
@@ -4745,22 +4735,22 @@
         <v>55</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="D140" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" spans="1:7">
@@ -4768,19 +4758,19 @@
         <v>55</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C141" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D141" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F141" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G141" s="13"/>
     </row>
@@ -4789,19 +4779,19 @@
         <v>55</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D142" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E142" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F142" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G142" s="13"/>
     </row>
@@ -4810,19 +4800,19 @@
         <v>55</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F143" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G143" s="13"/>
     </row>
@@ -4831,19 +4821,19 @@
         <v>55</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D144" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E144" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F144" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G144" s="13"/>
     </row>
@@ -4852,19 +4842,19 @@
         <v>55</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C145" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E145" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D145" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F145" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G145" s="13"/>
     </row>
@@ -4873,19 +4863,19 @@
         <v>55</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E146" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D146" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F146" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G146" s="13"/>
     </row>
@@ -4894,22 +4884,22 @@
         <v>55</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C147" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E147" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F147" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" spans="1:7">
@@ -4917,19 +4907,19 @@
         <v>55</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E148" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D148" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E148" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="F148" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G148" s="13"/>
     </row>
@@ -4938,19 +4928,19 @@
         <v>55</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="D149" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E149" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F149" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G149" s="13"/>
     </row>
@@ -4959,19 +4949,19 @@
         <v>55</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="D150" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F150" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G150" s="13"/>
     </row>
@@ -4980,19 +4970,19 @@
         <v>55</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="D151" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E151" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D151" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F151" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G151" s="13"/>
     </row>
@@ -5001,19 +4991,19 @@
         <v>55</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="D152" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D152" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F152" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G152" s="13"/>
     </row>
@@ -5022,19 +5012,19 @@
         <v>55</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="D153" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D153" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E153" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F153" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G153" s="13"/>
     </row>
@@ -5043,19 +5033,19 @@
         <v>55</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="D154" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E154" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F154" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G154" s="13"/>
     </row>
@@ -5064,42 +5054,42 @@
         <v>55</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="D155" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E155" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D155" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="F155" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G155" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G155" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="156" s="2" customFormat="1" ht="15.25" spans="1:7">
+    </row>
+    <row r="156" s="2" customFormat="1" ht="15.75" spans="1:7">
       <c r="A156" s="24">
         <v>55</v>
       </c>
       <c r="B156" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="D156" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E156" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>158</v>
-      </c>
       <c r="F156" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G156" s="27"/>
     </row>
@@ -5118,7 +5108,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5134,7 +5124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
